--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -769,6 +769,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -769,7 +769,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1778177568779892</v>
+        <v>0.1778300754914373</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.002710027100271128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1776551186857228</v>
+        <v>0.1776674260321464</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.002949852507374562</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2245330677578819</v>
+        <v>0.2243608729657523</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008361204013377366</v>
+        <v>-0.005020920502091908</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08001799059509515</v>
+        <v>0.08002353397114678</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.00101626016260159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07998586453242523</v>
+        <v>0.07999140568289179</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202418289367478</v>
+        <v>0.1203686319473658</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009852216748769127</v>
+        <v>-0.0009842519685039353</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1397483726141379</v>
+        <v>0.1397580539092597</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.001666666666666594</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-6.927182263205545E-05</v>
+        <v>-0.002565243015360208</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1778300754914373</v>
+        <v>0.1778042623096033</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002710027100271128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1776674260321464</v>
+        <v>0.1775989177131859</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002949852507374562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2243608729657523</v>
+        <v>0.2238084980452</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005020920502091908</v>
+        <v>0.000841042893187538</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08002353397114678</v>
+        <v>0.08014780784577413</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00101626016260159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07999140568289179</v>
+        <v>0.08019713081256065</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1203686319473658</v>
+        <v>0.120559423102475</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009842519685039353</v>
+        <v>-0.0009852216748769127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1397580539092597</v>
+        <v>0.139883960171201</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001666666666666594</v>
+        <v>0.0008347245409014992</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002565243015360208</v>
+        <v>0.0001862193643982213</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1778042623096033</v>
+        <v>0.177771157877575</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.00181159420289867</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1775989177131859</v>
+        <v>0.1775658515131784</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.001972386587770991</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2238084980452</v>
+        <v>0.2239550258293522</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000841042893187538</v>
+        <v>0.002521008403361114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08014780784577413</v>
+        <v>0.08013288555075948</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001017293997965352</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08019713081256065</v>
+        <v>0.08018219933436456</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.120559423102475</v>
+        <v>0.1204182211411209</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009852216748769127</v>
+        <v>0.0009861932938857176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.139883960171201</v>
+        <v>0.1399746587536495</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008347245409014992</v>
+        <v>-0.001668056713928223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001862193643982213</v>
+        <v>0.001203658881462788</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.177771157877575</v>
+        <v>0.1778791013165024</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00181159420289867</v>
+        <v>0.001808318264014286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1775658515131784</v>
+        <v>0.1777021872012689</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001972386587770991</v>
+        <v>0.0009842519685039353</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2239550258293522</v>
+        <v>0.2242496981905505</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002521008403361114</v>
+        <v>0.001676445934618798</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08013288555075948</v>
+        <v>0.08011796954865789</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001017293997965352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08018219933436456</v>
+        <v>0.08008580334588819</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.001154734411085379</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1204182211411209</v>
+        <v>0.1203920658040093</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009861932938857176</v>
+        <v>0.0009852216748769127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1399746587536495</v>
+        <v>0.1395731745931226</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001668056713928223</v>
+        <v>-0.0008354218880534114</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001203658881462788</v>
+        <v>0.0007820408048384575</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -552,7 +552,7 @@
         <v>0.1778791013165024</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001808318264014286</v>
+        <v>0.002712477396021651</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>0.1777021872012689</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009842519685039353</v>
+        <v>0.001968503937007871</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.1203920658040093</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009852216748769127</v>
+        <v>0.001970443349753603</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -654,7 +654,7 @@
         <v>0.1395731745931226</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008354218880534114</v>
+        <v>-0.001670843776107045</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0007820408048384575</v>
+        <v>0.001119785933920481</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1778791013165024</v>
+        <v>0.1781620909546391</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002712477396021651</v>
+        <v>-0.0009017132551849549</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1777021872012689</v>
+        <v>0.1778528375505925</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001968503937007871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2242496981905505</v>
+        <v>0.2243743894002392</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001676445934618798</v>
+        <v>-0.0008368200836821327</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08011796954865789</v>
+        <v>0.08002835492250088</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08008580334588819</v>
+        <v>0.07990385030528732</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001154734411085379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1203920658040093</v>
+        <v>0.1204943636558973</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001970443349753603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1395731745931226</v>
+        <v>0.1391841132108435</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001670843776107045</v>
+        <v>0.0008368200836821327</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001119785933920481</v>
+        <v>-0.0002319400530350624</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1781620909546391</v>
+        <v>0.1780427350770702</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0009017132551849549</v>
+        <v>-0.001805054151624463</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1778528375505925</v>
+        <v>0.1778940983171908</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.0009823182711198308</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2243743894002392</v>
+        <v>0.2242386383265911</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008368200836821327</v>
+        <v>-0.0008375209380233617</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08002835492250088</v>
+        <v>0.08004692100960514</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07990385030528732</v>
+        <v>0.07992238750808464</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1204943636558973</v>
+        <v>0.1205223176086354</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009832841691247429</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1391841132108435</v>
+        <v>0.1393329021528227</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008368200836821327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0002319400530350624</v>
+        <v>-0.0008024376428618085</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1780427350770702</v>
+        <v>0.177864083134573</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001805054151624463</v>
+        <v>-0.000904159132007365</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1778940983171908</v>
+        <v>0.1778620729166352</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009823182711198308</v>
+        <v>-0.001966568338249597</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2242386383265911</v>
+        <v>0.2242307649783851</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008375209380233617</v>
+        <v>-0.002514668901927752</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08004692100960514</v>
+        <v>0.08011120525631785</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.00101626016260159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07992238750808464</v>
+        <v>0.07998657174417563</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001156069364161905</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1205223176086354</v>
+        <v>0.1205005040621479</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009832841691247429</v>
+        <v>-0.0009842519685039353</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1393329021528227</v>
+        <v>0.1394447979077652</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0008024376428618085</v>
+        <v>-0.001182008147413316</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.177864083134573</v>
+        <v>0.1779135609781623</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.000904159132007365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1778620729166352</v>
+        <v>0.1777223642780161</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001966568338249597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2242307649783851</v>
+        <v>0.2239315878080908</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002514668901927752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08011120525631785</v>
+        <v>0.08012449924074783</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00101626016260159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07998657174417563</v>
+        <v>0.08017380786341712</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001156069364161905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1205005040621479</v>
+        <v>0.1205243619816431</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009842519685039353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1394447979077652</v>
+        <v>0.1396098178499227</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.0008361204013380696</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001182008147413316</v>
+        <v>-0.0001167306169315152</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1779135609781623</v>
+        <v>0.1779343313624355</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.003619909502262542</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1777223642780161</v>
+        <v>0.177743112341175</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.001970443349753714</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2239315878080908</v>
+        <v>0.2239577305321424</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.001680672268907557</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08012449924074783</v>
+        <v>0.08013385331488238</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08017380786341712</v>
+        <v>0.08018316769404957</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1205243619816431</v>
+        <v>0.1205384325072336</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1396098178499227</v>
+        <v>0.1395093722480815</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008361204013380696</v>
+        <v>0.001673640167364043</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0001167306169315152</v>
+        <v>-0.0003844508743238162</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1779343313624355</v>
+        <v>0.177418690633189</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003619909502262542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.177743112341175</v>
+        <v>0.1775633254353357</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001970443349753714</v>
+        <v>-0.001968503937007759</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2239577305321424</v>
+        <v>0.224825760261789</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001680672268907557</v>
+        <v>-0.0008354218880536335</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08013385331488238</v>
+        <v>0.08005536298815501</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08018316769404957</v>
+        <v>0.08002322192101131</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1205384325072336</v>
+        <v>0.1204165080538483</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1395093722480815</v>
+        <v>0.1396971307066716</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001673640167364043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0003844508743238162</v>
+        <v>-0.0005373584663085351</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.177418690633189</v>
+        <v>0.1775140793266042</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.00181159420289867</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1775633254353357</v>
+        <v>0.1773090698599906</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001968503937007759</v>
+        <v>0.002958579881656709</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.224825760261789</v>
+        <v>0.2247587118973827</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008354218880536335</v>
+        <v>0.003344481605351168</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08005536298815501</v>
+        <v>0.08009840454397452</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.00101626016260159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08002322192101131</v>
+        <v>0.08006624619627042</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1204165080538483</v>
+        <v>0.1204812496733918</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009842519685037132</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1396971307066716</v>
+        <v>0.1397722385023857</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.001668056713928445</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0005373584663085351</v>
+        <v>0.002031000647186643</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1775140793266042</v>
+        <v>0.1775624694588739</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00181159420289867</v>
+        <v>0.001808318264014286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773090698599906</v>
+        <v>0.1775604626497706</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002958579881656709</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2247587118973827</v>
+        <v>0.2247887080865376</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003344481605351168</v>
+        <v>0.003338898163605775</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08009840454397452</v>
+        <v>0.08005663215289477</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00101626016260159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08006624619627042</v>
+        <v>0.07994324743855902</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1204812496733918</v>
+        <v>0.1204145666245571</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009842519685037132</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1397722385023857</v>
+        <v>0.1396739135888068</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001668056713928445</v>
+        <v>0.0008333333333334636</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002031000647186643</v>
+        <v>0.001481025118226009</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1775624694588739</v>
+        <v>0.1776204984956161</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001808318264014286</v>
+        <v>-0.0009025270758121762</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1775604626497706</v>
+        <v>0.1774722142346879</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009832841691248539</v>
+        <v>-0.0009823182711198308</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2247887080865376</v>
+        <v>0.2252057193640208</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003338898163605775</v>
+        <v>-0.002495840266222848</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08005663215289477</v>
+        <v>0.07993824160916477</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07994324743855902</v>
+        <v>0.07982502457210473</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1204145666245571</v>
+        <v>0.1203547199982366</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009832841691248539</v>
+        <v>-0.0009823182711199419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1396739135888068</v>
+        <v>0.1395835817261691</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008333333333334636</v>
+        <v>-0.0008326394671107629</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001481025118226009</v>
+        <v>-0.001131168449918452</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1776204984956161</v>
+        <v>0.1776254004322618</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0009025270758121762</v>
+        <v>0.001801801801801783</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1774722142346879</v>
+        <v>0.1775053832698076</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009823182711198308</v>
+        <v>0.0009803921568629637</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2252057193640208</v>
+        <v>0.2253672275135344</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002495840266222848</v>
+        <v>0.001659751037344392</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07993824160916477</v>
+        <v>0.07987742247141341</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07982502457210473</v>
+        <v>0.07968339472544575</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1203547199982366</v>
+        <v>0.120141180188767</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009823182711199419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1395835817261691</v>
+        <v>0.1397999913987701</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008326394671107629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001131168449918452</v>
+        <v>0.0008681241417523022</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1776254004322618</v>
+        <v>0.1777911014514477</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001801801801801783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1775053832698076</v>
+        <v>0.1775252941617328</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009803921568629637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2253672275135344</v>
+        <v>0.2255454795273427</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001659751037344392</v>
+        <v>0.001657000828500399</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07987742247141341</v>
+        <v>0.07980813909915312</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07968339472544575</v>
+        <v>0.07961427964725575</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.120141180188767</v>
+        <v>0.120036973194434</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1397999913987701</v>
+        <v>0.139678732918634</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0008681241417523022</v>
+        <v>0.0003737290464413956</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1777911014514477</v>
+        <v>0.1777040895312195</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1775252941617328</v>
+        <v>0.1774384123290202</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2255454795273427</v>
+        <v>0.2258086424993632</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001657000828500399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07980813909915312</v>
+        <v>0.07976908056711095</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07961427964725575</v>
+        <v>0.07957531599107084</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.120036973194434</v>
+        <v>0.1199782264548573</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.139678732918634</v>
+        <v>0.1397262326273578</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0003737290464413956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -552,7 +552,7 @@
         <v>0.1777040895312195</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.002697841726618577</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>0.1774384123290202</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.001958863858961934</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -586,7 +586,7 @@
         <v>0.2258086424993632</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.004135649296939548</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.1199782264548573</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009823182711199419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -654,7 +654,7 @@
         <v>0.1397262326273578</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.0008291873963515162</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>-0.001994576589443908</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1777040895312195</v>
+        <v>0.1775788666737389</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002697841726618577</v>
+        <v>0.0009017132551847329</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1774384123290202</v>
+        <v>0.1774447618037305</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001958863858961934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2258086424993632</v>
+        <v>0.2253242035271582</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004135649296939548</v>
+        <v>0.002491694352159568</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07976908056711095</v>
+        <v>0.07992850409019853</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07957531599107084</v>
+        <v>0.07973435226347003</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1199782264548573</v>
+        <v>0.1200999181359823</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009823182711199419</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1397262326273578</v>
+        <v>0.1398893935057215</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008291873963515162</v>
+        <v>0.001659751037344392</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001994576589443908</v>
+        <v>0.0009907747858826088</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -586,7 +586,7 @@
         <v>0.2253242035271582</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002491694352159568</v>
+        <v>0.001661129568106379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0009907747858826088</v>
+        <v>0.0008036284374384195</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1775788666737389</v>
+        <v>0.1775962704783199</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0009017132551847329</v>
+        <v>-0.001801801801801783</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1774447618037305</v>
+        <v>0.1773022766521903</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.0009813542688911214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2253242035271582</v>
+        <v>0.2255172641374531</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001661129568106379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07992850409019853</v>
+        <v>0.07978332455018443</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07973435226347003</v>
+        <v>0.0796703269231346</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200999181359823</v>
+        <v>0.1201214774489735</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1398893935057215</v>
+        <v>0.140009059809744</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001659751037344392</v>
+        <v>-0.0008285004142503105</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0008036284374384195</v>
+        <v>-0.0005289888912333174</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -58,7 +58,7 @@
     <t>DoubleLine Core Fixed Income Fund</t>
   </si>
   <si>
-    <t>First Western Fixed Income Fund</t>
+    <t>Oakhurst Fixed Income Fund</t>
   </si>
   <si>
     <t>Western Asset Core Plus Bond Fund</t>
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1775962704783199</v>
+        <v>0.1773701040128385</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001801801801801783</v>
+        <v>0.0009025270758122872</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773022766521903</v>
+        <v>0.1772220287906256</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009813542688911214</v>
+        <v>0.0009823182711199419</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2255172641374531</v>
+        <v>0.2256366234046896</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.0008291873963515162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07978332455018443</v>
+        <v>0.07990659254901489</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0796703269231346</v>
+        <v>0.07971249394692502</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1201214774489735</v>
+        <v>0.1201850540074358</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009823182711197198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.140009059809744</v>
+        <v>0.1399671032884705</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008285004142503105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0005289888912333174</v>
+        <v>0.0006393247769866939</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1773701040128385</v>
+        <v>0.177416758404649</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0009025270758122872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1772220287906256</v>
+        <v>0.1772827759563497</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009823182711199419</v>
+        <v>0.0009813542688910104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2256366234046896</v>
+        <v>0.2256794359938848</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008291873963515162</v>
+        <v>0.0008285004142500885</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07990659254901489</v>
+        <v>0.07985553892440089</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07971249394692502</v>
+        <v>0.0796615643350721</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1201850540074358</v>
+        <v>0.1202262503612027</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009823182711197198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1399671032884705</v>
+        <v>0.1398776760244408</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0006393247769866939</v>
+        <v>0.0002799633248042888</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.177416758404649</v>
+        <v>0.1773671021210283</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0009017132551847329</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1772827759563497</v>
+        <v>0.1774070856877823</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009813542688910104</v>
+        <v>0.0009803921568629637</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2256794359938848</v>
+        <v>0.2258031948869015</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008285004142500885</v>
+        <v>0.001655629139072801</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07985553892440089</v>
+        <v>0.07975222183682507</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0796615643350721</v>
+        <v>0.07963926826074483</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202262503612027</v>
+        <v>0.1201926008410543</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009813542688912325</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1398776760244408</v>
+        <v>0.1398385263656637</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.0008291873963517382</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0002799633248042888</v>
+        <v>0.001022579719735184</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1773671021210283</v>
+        <v>0.1773456862858661</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0009017132551847329</v>
+        <v>0.0009009009009008917</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1774070856877823</v>
+        <v>0.1773996089607503</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009803921568629637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2258031948869015</v>
+        <v>0.2259459934453993</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001655629139072801</v>
+        <v>0.0008264462809917106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07975222183682507</v>
+        <v>0.07975163615375551</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07963926826074483</v>
+        <v>0.07955791395139371</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1201926008410543</v>
+        <v>0.1201876509085971</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009813542688912325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1398385263656637</v>
+        <v>0.1398115102942381</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008291873963517382</v>
+        <v>0.0008285004142500885</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001022579719735184</v>
+        <v>0.000462337008729552</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1773456862858661</v>
+        <v>0.1774234277575439</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0009009009009008917</v>
+        <v>0.0009000900090008201</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773996089607503</v>
+        <v>0.1773176284588136</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0009794319294809117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2259459934453993</v>
+        <v>0.2260282244582027</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008264462809917106</v>
+        <v>0.001651527663088403</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07975163615375551</v>
+        <v>0.07971478106032855</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07955791395139371</v>
+        <v>0.07952114838152025</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1201876509085971</v>
+        <v>0.12013210938849</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1398115102942381</v>
+        <v>0.1398626804951008</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008285004142500885</v>
+        <v>0.001655629139072801</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000462337008729552</v>
+        <v>0.0009382201962875314</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1774234277575439</v>
+        <v>0.1774166689103014</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0009000900090008201</v>
+        <v>-0.0008992805755395628</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773176284588136</v>
+        <v>0.1773249291759279</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009794319294809117</v>
+        <v>-0.0009784735812132794</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2260282244582027</v>
+        <v>0.2261893009531958</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001651527663088403</v>
+        <v>-0.002473206924979432</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07971478106032855</v>
+        <v>0.07964006114652729</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07952114838152025</v>
+        <v>0.07944660996752213</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.12013210938849</v>
+        <v>0.1200195046652646</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009803921568628526</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1398626804951008</v>
+        <v>0.1399629251812607</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001655629139072801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0009382201962875314</v>
+        <v>-0.001010134249135319</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1774166689103014</v>
+        <v>0.1774363560864982</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008992805755395628</v>
+        <v>-0.001800180018001751</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773249291759279</v>
+        <v>0.1773305490784809</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009784735812132794</v>
+        <v>-0.0009794319294810228</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2261893009531958</v>
+        <v>0.2258580349442617</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002473206924979432</v>
+        <v>-0.002479338842975021</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07964006114652729</v>
+        <v>0.07972058964448846</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07944660996752213</v>
+        <v>0.07952694285623024</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200195046652646</v>
+        <v>0.1200230779058996</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009803921568628526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1399629251812607</v>
+        <v>0.1401044494841409</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.001652892561983421</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001010134249135319</v>
+        <v>-0.001284656786022187</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1774363560864982</v>
+        <v>0.1773447658607328</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001800180018001751</v>
+        <v>-0.002705139765554532</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773305490784809</v>
+        <v>0.1773847443922613</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009794319294810228</v>
+        <v>-0.002941176470588225</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2258580349442617</v>
+        <v>0.2255878593195454</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002479338842975021</v>
+        <v>-0.005799502899751507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07972058964448846</v>
+        <v>0.07982313497651761</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07952694285623024</v>
+        <v>0.07962923909860405</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200230779058996</v>
+        <v>0.1201774647014553</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.001962708537782021</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1401044494841409</v>
+        <v>0.1400527916508835</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001652892561983421</v>
+        <v>-0.00248344370860909</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001284656786022187</v>
+        <v>-0.002974402745725579</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1773447658607328</v>
+        <v>0.177392660699446</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002705139765554532</v>
+        <v>0.001808318264014286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773847443922613</v>
+        <v>0.1773906558095194</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002941176470588225</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2255878593195454</v>
+        <v>0.2249486497567567</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005799502899751507</v>
+        <v>0.001666666666666483</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07982313497651761</v>
+        <v>0.07998007139413028</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07962923909860405</v>
+        <v>0.07986679511328129</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1201774647014553</v>
+        <v>0.1202994102616281</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001962708537782021</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1400527916508835</v>
+        <v>0.1401217569652382</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00248344370860909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002974402745725579</v>
+        <v>0.0009884107337796433</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -552,7 +552,7 @@
         <v>0.177392660699446</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001808318264014286</v>
+        <v>0.002712477396021651</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>0.1773906558095194</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0.001966568338249708</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -586,7 +586,7 @@
         <v>0.2249486497567567</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001666666666666483</v>
+        <v>0.005000000000000115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -603,7 +603,7 @@
         <v>0.07998007139413028</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.1202994102616281</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0.001966568338249708</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -654,7 +654,7 @@
         <v>0.1401217569652382</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.001659751037344392</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0009884107337796433</v>
+        <v>0.002505109963200303</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.177392660699446</v>
+        <v>0.1774293542387457</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002712477396021651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773906558095194</v>
+        <v>0.1772953622782633</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001966568338249708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2249486497567567</v>
+        <v>0.2255084694918305</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005000000000000115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07998007139413028</v>
+        <v>0.07986120832750035</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07986679511328129</v>
+        <v>0.079667219966802</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202994102616281</v>
+        <v>0.1202347859128452</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001966568338249708</v>
+        <v>-0.0009813542688908994</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1401217569652382</v>
+        <v>0.140003599784013</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001659751037344392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002505109963200303</v>
+        <v>-0.0001179929204245811</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1774293542387457</v>
+        <v>0.1774502921169428</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1772953622782633</v>
+        <v>0.177316284344492</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2255084694918305</v>
+        <v>0.2255350810347</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07986120832750035</v>
+        <v>0.07987063249668479</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.079667219966802</v>
+        <v>0.07967662124403214</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202347859128452</v>
+        <v>0.1201309675961205</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009813542688908994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.140003599784013</v>
+        <v>0.1400201211670277</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0001179929204245811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -552,7 +552,7 @@
         <v>0.1774502921169428</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.0009017132551849549</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>0.177316284344492</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.001962708537782132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -586,7 +586,7 @@
         <v>0.2255350810347</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.003316749585406509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -603,7 +603,7 @@
         <v>0.07987063249668479</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.1201309675961205</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009823182711199419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -654,7 +654,7 @@
         <v>0.1400201211670277</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.002485501242750821</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>-0.00180310458006594</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1774502921169428</v>
+        <v>0.1776105332022895</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0009017132551849549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.177316284344492</v>
+        <v>0.1772879328430209</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001962708537782132</v>
+        <v>0.001966568338249708</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2255350810347</v>
+        <v>0.225193084329938</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003316749585406509</v>
+        <v>0.004159733777038488</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07987063249668479</v>
+        <v>0.07993375672125827</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07967662124403214</v>
+        <v>0.07982054603617332</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1201309675961205</v>
+        <v>0.1202297475602096</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009823182711199419</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1400201211670277</v>
+        <v>0.1399243993071105</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002485501242750821</v>
+        <v>0.0008305647840534114</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00180310458006594</v>
+        <v>0.001600979422705651</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1776105332022895</v>
+        <v>0.1775898773769895</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0009009009009008917</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1772879328430209</v>
+        <v>0.1772958941340343</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001966568338249708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.225193084329938</v>
+        <v>0.2256961353202868</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004159733777038488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07993375672125827</v>
+        <v>0.07986144789746984</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07982054603617332</v>
+        <v>0.07966745895483958</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202297475602096</v>
+        <v>0.1201171533222606</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0.0009823182711197198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1399243993071105</v>
+        <v>0.1397720329941194</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008305647840534114</v>
+        <v>0.0008298755186721962</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001600979422705651</v>
+        <v>0.0003939775432799664</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1775898773769895</v>
+        <v>0.1776798663802625</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0009009009009008917</v>
+        <v>0.0009000900090008201</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1772958941340343</v>
+        <v>0.1772260710419601</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.001962708537782243</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2256961353202868</v>
+        <v>0.2256072511297405</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.001657000828500399</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07986144789746984</v>
+        <v>0.07982999667150116</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07966745895483958</v>
+        <v>0.07963608412605916</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1201171533222606</v>
+        <v>0.1201877953043178</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009823182711197198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1397720329941194</v>
+        <v>0.1398329353461589</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008298755186721962</v>
+        <v>0.0008291873963517382</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0003939775432799664</v>
+        <v>0.0009975501049028779</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1776798663802625</v>
+        <v>0.1776625669405032</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0009000900090008201</v>
+        <v>0.001798561151079348</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1772260710419601</v>
+        <v>0.1773969518168174</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001962708537782243</v>
+        <v>0.0009794319294809117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2256072511297405</v>
+        <v>0.2257558797302708</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001657000828500399</v>
+        <v>0.003308519437551727</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07982999667150116</v>
+        <v>0.07975044161010696</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001014198782961495</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07963608412605916</v>
+        <v>0.07955672230937372</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1201877953043178</v>
+        <v>0.1200680214369379</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009813542688912325</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1398329353461589</v>
+        <v>0.13980941615599</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008291873963517382</v>
+        <v>0.0008285004142500885</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0009975501049028779</v>
+        <v>0.001554747171348847</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1776625669405032</v>
+        <v>0.1777058163161536</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001798561151079348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773969518168174</v>
+        <v>0.1772950510764641</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009794319294809117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2257558797302708</v>
+        <v>0.2261511895242899</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003308519437551727</v>
+        <v>-0.0008244023083263663</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07975044161010696</v>
+        <v>0.07970739955693185</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001014198782961495</v>
+        <v>-0.001013171225937137</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07955672230937372</v>
+        <v>0.0794332237294692</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200680214369379</v>
+        <v>0.1199992821578335</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009813542688912325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.13980941615599</v>
+        <v>0.1397080376388576</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008285004142500885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001554747171348847</v>
+        <v>-0.0002671968063999719</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1777058163161536</v>
+        <v>0.1777533114332956</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.0008976660682226134</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1772950510764641</v>
+        <v>0.1773424364091118</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.0009784735812132794</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2261511895242899</v>
+        <v>0.2260251431580333</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008244023083263663</v>
+        <v>-0.0008250825082509738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07970739955693185</v>
+        <v>0.07964792398413144</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001013171225937137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0794332237294692</v>
+        <v>0.07945445370575364</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001154734411085379</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1199992821578335</v>
+        <v>0.1200313541523309</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1397080376388576</v>
+        <v>0.1397453771573432</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0002671968063999719</v>
+        <v>-0.0004278286052787905</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -620,7 +620,7 @@
         <v>0.07945445370575364</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001154734411085379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0004278286052787905</v>
+        <v>-0.0005195773970868567</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1777533114332956</v>
+        <v>0.1772899957788097</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008976660682226134</v>
+        <v>0.001796945193171418</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1773424364091118</v>
+        <v>0.1772123418049173</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009784735812132794</v>
+        <v>0.0009775171065493637</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2260251431580333</v>
+        <v>0.2267555771482275</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008250825082509738</v>
+        <v>0.002463054187192171</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07964792398413144</v>
+        <v>0.0795116958831447</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001014198782961495</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07945445370575364</v>
+        <v>0.07931855651218173</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200313541523309</v>
+        <v>0.1199435316230875</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1397453771573432</v>
+        <v>0.1399683012496316</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.0008250825082509738</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0005195773970868567</v>
+        <v>0.001246445837348897</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1772899957788097</v>
+        <v>0.1773874723080655</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001796945193171418</v>
+        <v>0.0008968609865469546</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1772123418049173</v>
+        <v>0.1771647436432841</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009775171065493637</v>
+        <v>0.0009765625</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2267555771482275</v>
+        <v>0.2270311064444152</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002463054187192171</v>
+        <v>0.002457002457002533</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0795116958831447</v>
+        <v>0.07949325251464638</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001014198782961495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07931855651218173</v>
+        <v>0.07921981330565134</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1199435316230875</v>
+        <v>0.1197942146229323</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009794319294806897</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1399683012496316</v>
+        <v>0.139909397161005</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008250825082509738</v>
+        <v>0.0008244023083263663</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001246445837348897</v>
+        <v>0.001122592243474108</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1773874723080655</v>
+        <v>0.1774338274968773</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008968609865469546</v>
+        <v>-0.001792114695340352</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1771647436432841</v>
+        <v>0.1772251519605067</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009765625</v>
+        <v>-0.0009756097560975618</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2270311064444152</v>
+        <v>0.2270727691343046</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002457002457002533</v>
+        <v>-0.002454991816694174</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07949325251464638</v>
+        <v>0.07944277669630853</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07921981330565134</v>
+        <v>0.07916951111296601</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1197942146229323</v>
+        <v>0.1198354046864551</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009794319294806897</v>
+        <v>-0.0009784735812131684</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.139909397161005</v>
+        <v>0.1398205589125819</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008244023083263663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001122592243474108</v>
+        <v>-0.001165601924584592</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1774338274968773</v>
+        <v>0.1776895178736275</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001792114695340352</v>
+        <v>0.002692998204667729</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1772251519605067</v>
+        <v>0.1776257155332779</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009756097560975618</v>
+        <v>0.0029296875</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2270727691343046</v>
+        <v>0.226130447872491</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002454991816694174</v>
+        <v>0.002473206924979543</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07944277669630853</v>
+        <v>0.07953858944988426</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07916951111296601</v>
+        <v>0.07933422257845196</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1198354046864551</v>
+        <v>0.1198706407549412</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009784735812131684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1398205589125819</v>
+        <v>0.1398108659373262</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.0008271298593879317</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001165601924584592</v>
+        <v>0.001523280875846744</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1776895178736275</v>
+        <v>0.1778970482547734</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002692998204667729</v>
+        <v>0.0008952551477170445</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1776257155332779</v>
+        <v>0.177875149558144</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0029296875</v>
+        <v>0.001947419668938632</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.226130447872491</v>
+        <v>0.2263449283614002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002473206924979543</v>
+        <v>0.001644736842105088</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07953858944988426</v>
+        <v>0.07949824113650253</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07933422257845196</v>
+        <v>0.07921355808032045</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1198706407549412</v>
+        <v>0.1196883218232457</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1398108659373262</v>
+        <v>0.1394827527856138</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008271298593879317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001523280875846744</v>
+        <v>0.000877938655778232</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1778970482547734</v>
+        <v>0.1779001261054114</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008952551477170445</v>
+        <v>0.0008944543828264262</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.177875149558144</v>
+        <v>0.178065216785943</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001947419668938632</v>
+        <v>0.0009718172983479434</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2263449283614002</v>
+        <v>0.2265183369998051</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001644736842105088</v>
+        <v>0.0008210180623973162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07949824113650253</v>
+        <v>0.07942850777915243</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07921355808032045</v>
+        <v>0.07914407443799552</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196883218232457</v>
+        <v>0.1195833349908703</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1394827527856138</v>
+        <v>0.1393604029008223</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.001655629139072801</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000877938655778232</v>
+        <v>0.000287416907672311</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1779001261054114</v>
+        <v>0.1780080871189713</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008944543828264262</v>
+        <v>-0.001787310098301909</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.178065216785943</v>
+        <v>0.1781870496730454</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009718172983479434</v>
+        <v>-0.002912621359223322</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2265183369998051</v>
+        <v>0.2266391727157667</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008210180623973162</v>
+        <v>-0.002461033634126197</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07942850777915243</v>
+        <v>0.07940568524264838</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07914407443799552</v>
+        <v>0.07912133362895299</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1195833349908703</v>
+        <v>0.119548974594277</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1393604029008223</v>
+        <v>0.1390896970263384</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001655629139072801</v>
+        <v>0.0008291873963517382</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000287416907672311</v>
+        <v>-0.001279582261629053</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1780080871189713</v>
+        <v>0.1778970482547734</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001787310098301909</v>
+        <v>-0.0017905102954342</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1781870496730454</v>
+        <v>0.177875149558144</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002912621359223322</v>
+        <v>-0.001947419668938632</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2266391727157667</v>
+        <v>0.2263449283614002</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002461033634126197</v>
+        <v>-0.003289473684210509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07940568524264838</v>
+        <v>0.07949824113650253</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07912133362895299</v>
+        <v>0.07921355808032045</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.001156069364161794</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.119548974594277</v>
+        <v>0.1196883218232457</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009813542688908994</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1390896970263384</v>
+        <v>0.1394827527856138</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008291873963517382</v>
+        <v>-0.0008278145695362893</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001279582261629053</v>
+        <v>-0.001814605634335331</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/CORP_holdings.xlsx
+++ b/CORP_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1778970482547734</v>
+        <v>0.1779013425368691</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0017905102954342</v>
+        <v>0.001793721973094131</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>0.177875149558144</v>
+        <v>0.1778514822951267</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001947419668938632</v>
+        <v>0.001951219512195124</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2263449283614002</v>
+        <v>0.2260104925892722</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003289473684210509</v>
+        <v>0.004125412541253981</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07949824113650253</v>
+        <v>0.07956198774834138</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07921355808032045</v>
+        <v>0.07926581791239155</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001156069364161794</v>
+        <v>0.00115740740740744</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196883218232457</v>
+        <v>0.1197882335812717</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009813542688908994</v>
+        <v>0.0009823182711197198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1394827527856138</v>
+        <v>0.1396206433367271</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008278145695362893</v>
+        <v>0.001657000828500399</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001814605634335331</v>
+        <v>0.002120057478886439</v>
       </c>
     </row>
     <row r="12" spans="1:5">
